--- a/Ing_economica/Repaso1/1. REPASO PRIMER PARCIAL.xlsx
+++ b/Ing_economica/Repaso1/1. REPASO PRIMER PARCIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\Repaso1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416BBEE7-B8BA-4651-AC3A-943DA4279595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F8998D-9697-4269-8DFE-AE5F4110A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4FF520D2-2647-F44A-9A9C-4ADCA14978DE}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;Q&quot;#,##0.00;[Red]\-&quot;Q&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$Q-100A]* #,##0.00_-;\-[$Q-100A]* #,##0.00_-;_-[$Q-100A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$Q-100A]* #,##0.00_-;\-[$Q-100A]* #,##0.00_-;_-[$Q-100A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -186,27 +186,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,18 +762,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87744727-C624-3349-AA56-5C1AF6AF809C}">
   <dimension ref="A9:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" style="3"/>
-    <col min="2" max="2" width="5.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="3"/>
-    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="2"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" style="2"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -798,137 +796,137 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>-1800000</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>-1800000</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>-1800000</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>-1800000</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f>C18+$H$16</f>
         <v>-1770000</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f>SUM(C15:C24)</f>
         <v>-17370000</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:C24" si="0">C19+$H$16</f>
         <v>-1740000</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f>H19-C25</f>
         <v>-7448243.3248740509</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>-1710000</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>-1680000</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>-1650000</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>-1620000</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <f>NPV(H17,C15:C24)+C14</f>
         <v>-9921756.6751259491</v>
       </c>
@@ -973,43 +971,43 @@
   <dimension ref="B8:G33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.09765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>0.01</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>140000</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>0.18</v>
       </c>
       <c r="G9" t="s">
@@ -1017,242 +1015,242 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>141000</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>EFFECT(F9,12)</f>
         <v>0.19561817146153326</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C32" si="0">C10+(C10*$F$8)</f>
         <v>142410</v>
       </c>
-      <c r="F11" s="11">
-        <f>EFFECT(F9/12,12)</f>
-        <v>1.5103555898416277E-2</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="9">
+        <f>EFFECT(F9/12,1)</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>143834.1</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>145272.44099999999</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>146725.16540999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>148192.41706409998</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>149674.34123474098</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>151171.0846470884</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>152682.79549355927</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>154209.62344849485</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>155751.7196829798</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>157309.23687980961</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>158882.32924860771</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>160471.15254109379</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>162075.86406650473</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
+      <c r="B25">
         <v>17</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>163696.62270716976</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+      <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>165333.58893424147</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
+      <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>166986.92482358389</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>168656.79407181972</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="B29">
         <v>21</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>170343.36201253792</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
+      <c r="B30">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>172046.7956326633</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
+      <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>173767.26358898994</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
+      <c r="B32">
         <v>24</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>175504.93622487984</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f>-C9+C32</f>
         <v>35504.936224879842</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <f>NPV(F11,C9:C32)+C8</f>
-        <v>3117052.2309092735</v>
+        <v>3120953.2482120767</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1298,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="8" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
@@ -1318,193 +1316,193 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>-2500000</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <f>C14+D14</f>
         <v>-2500000</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>700000</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>-200000</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f t="shared" ref="E15:E24" si="0">C15+D15</f>
         <v>500000</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>700000</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>-200000</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>700000</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>-200000</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>700000</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>-200000</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>2000000</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>-300000</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>2000000</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>-300000</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>2000000</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>-300000</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>2000000</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>-300000</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>2000000</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>-300000</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>2000000</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>-300000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <f>NPV(H14,E15:E24)+E14</f>
         <v>4141925.5440788055</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <f>-PMT(H14,B24,E25)</f>
         <v>674079.30824506702</v>
       </c>
@@ -1549,22 +1547,22 @@
   <dimension ref="B12:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="13"/>
+    <col min="2" max="2" width="5.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="11"/>
     <col min="6" max="6" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -1572,38 +1570,38 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>-22000</v>
       </c>
-      <c r="D13" s="14">
-        <f>FV($G$15,10-B13,,C13)</f>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:D22" si="0">FV($G$15,10-B13,,C13)</f>
         <v>52945.623141203861</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="17">
         <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>-22000</v>
       </c>
-      <c r="D14" s="14">
-        <f>FV($G$15,10-B14,,C14)</f>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
         <v>48023.240944402591</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="17">
         <v>0.1</v>
       </c>
       <c r="H14" t="s">
@@ -1611,21 +1609,21 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f>C14+($G$13*C14)</f>
         <v>-23760</v>
       </c>
-      <c r="D15" s="14">
-        <f>FV($G$15,10-B15,,C15)</f>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
         <v>47043.174802680078</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="16">
         <f>EFFECT(G14,2)</f>
         <v>0.10250000000000004</v>
       </c>
@@ -1634,118 +1632,117 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="13">
-        <f t="shared" ref="C16:C22" si="0">C15+($G$13*C15)</f>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:C22" si="1">C15+($G$13*C15)</f>
         <v>-25660.799999999999</v>
       </c>
-      <c r="D16" s="14">
-        <f>FV($G$15,10-B16,,C16)</f>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
         <v>46083.110010788652</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="13">
-        <f t="shared" si="0"/>
+      <c r="C17" s="11">
+        <f t="shared" si="1"/>
         <v>-27713.664000000001</v>
       </c>
-      <c r="D17" s="14">
-        <f>FV($G$15,10-B17,,C17)</f>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
         <v>45142.63837791542</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
+      <c r="C18" s="11">
+        <f t="shared" si="1"/>
         <v>-29930.757120000002</v>
       </c>
-      <c r="D18" s="14">
-        <f>FV($G$15,10-B18,,C18)</f>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
         <v>44221.360043672248</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="13">
-        <f t="shared" si="0"/>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
         <v>-32325.217689600002</v>
       </c>
-      <c r="D19" s="14">
-        <f>FV($G$15,10-B19,,C19)</f>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
         <v>43318.883308087097</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" s="13">
-        <f t="shared" si="0"/>
+      <c r="C20" s="11">
+        <f t="shared" si="1"/>
         <v>-34911.235104767999</v>
       </c>
-      <c r="D20" s="14">
-        <f>FV($G$15,10-B20,,C20)</f>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
         <v>42434.824465064907</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21" s="13">
-        <f t="shared" si="0"/>
+      <c r="C21" s="11">
+        <f t="shared" si="1"/>
         <v>-37704.133913149439</v>
       </c>
-      <c r="D21" s="14">
-        <f>FV($G$15,10-B21,,C21)</f>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
         <v>41568.807639247258</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="13">
-        <f t="shared" si="0"/>
+      <c r="C22" s="11">
+        <f t="shared" si="1"/>
         <v>-40720.464626201392</v>
       </c>
-      <c r="D22" s="14">
-        <f>FV($G$15,10-B22,,C22)</f>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
         <v>40720.464626201392</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <f>NPV(G15,C13:C22)+C12</f>
         <v>-170166.4032964925</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <f>FV(G15,B22,,C23)</f>
         <v>451502.12735926354</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="14">
         <f>SUM(D13:D22)</f>
         <v>451502.12735926354</v>
       </c>
-      <c r="E24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
